--- a/F_dataset/DUD-E/MET/MET_prepare/MET_inactive.xlsx
+++ b/F_dataset/DUD-E/MET/MET_prepare/MET_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T177"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9061,2442 +9061,6 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>CHEMBL517956</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>400.65</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2</v>
-      </c>
-      <c r="J149" t="n">
-        <v>8</v>
-      </c>
-      <c r="K149" t="n">
-        <v>3</v>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q149" t="n">
-        <v>78000</v>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>CHEMBL1926227</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type human MET using poly(Ala,Glu,Lys,Tyr) as substrate</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>CHEMBL2337906</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Nc1c(S(=O)(=O)[O-])cc(Nc2ccc(Oc3ccc(Nc4cc(S(=O)(=O)[O-])c(N)c5c4C(=O)c4ccccc4C5=O)cc3)cc2)c2c1C(=O)c1ccccc1C2=O</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Nc1c(S(=O)(=O)[O-])cc(Nc2ccc(Oc3ccc(Nc4cc(S(=O)(=O)[O-])c(N)c5c4C(=O)c4ccccc4C5=O)cc3)cc2)c2c1C(=O)c1ccccc1C2=O</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>800.78</v>
-      </c>
-      <c r="H150" t="n">
-        <v>4</v>
-      </c>
-      <c r="I150" t="n">
-        <v>15</v>
-      </c>
-      <c r="J150" t="n">
-        <v>8</v>
-      </c>
-      <c r="K150" t="n">
-        <v>8</v>
-      </c>
-      <c r="L150" t="n">
-        <v>8</v>
-      </c>
-      <c r="M150" t="n">
-        <v>268.01</v>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>CHEMBL2340058</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) using Poly(Glu,Tyr) at 4:1 ratio as substrate at 10 uM preincubated with substrate prior to enzyme addition measured after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>9</v>
-      </c>
-      <c r="J151" t="n">
-        <v>2</v>
-      </c>
-      <c r="K151" t="n">
-        <v>5</v>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q151" t="n">
-        <v>14</v>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>CHEMBL1019627</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 1 uM</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>CHEMBL1738828</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>O=C(Nc1cc(-c2ccncc2)c[nH]c1=O)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>O=C(Nc1cc(-c2ccncc2)c[nH]c1=O)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>291.31</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3</v>
-      </c>
-      <c r="K152" t="n">
-        <v>3</v>
-      </c>
-      <c r="L152" t="n">
-        <v>3</v>
-      </c>
-      <c r="M152" t="n">
-        <v>74.84999999999999</v>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q152" t="n">
-        <v>9</v>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>CHEMBL4256682</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 30 uM using peptide as substrate in presence of ATP and MgCl2 by mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>CHEMBL3732044</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>282.41</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>5</v>
-      </c>
-      <c r="K153" t="n">
-        <v>2</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0</v>
-      </c>
-      <c r="M153" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q153" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>CHEMBL3734488</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human c-MET using fluorescein-labeled peptide as substrate by fluorescence-electrophoretic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>CHEMBL1813628</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>284.32</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>4</v>
-      </c>
-      <c r="J154" t="n">
-        <v>2</v>
-      </c>
-      <c r="K154" t="n">
-        <v>3</v>
-      </c>
-      <c r="L154" t="n">
-        <v>3</v>
-      </c>
-      <c r="M154" t="n">
-        <v>85.93000000000001</v>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q154" t="n">
-        <v>18</v>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>CHEMBL1815730</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>CHEMBL2420903</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>330.39</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2</v>
-      </c>
-      <c r="K155" t="n">
-        <v>4</v>
-      </c>
-      <c r="L155" t="n">
-        <v>2</v>
-      </c>
-      <c r="M155" t="n">
-        <v>96.03</v>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q155" t="n">
-        <v>11</v>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>CHEMBL2424318</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>CHEMBL3408389</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1nn(-c2ccc(Cl)cc2)/c(=N/c2nc(-c3ccccc3)cc(-c3ccccc3)c2C#N)s1</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1nn(-c2ccc(Cl)cc2)/c(=N/c2nc(-c3ccccc3)cc(-c3ccccc3)c2C#N)s1</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>538.03</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>5</v>
-      </c>
-      <c r="J156" t="n">
-        <v>6</v>
-      </c>
-      <c r="K156" t="n">
-        <v>5</v>
-      </c>
-      <c r="L156" t="n">
-        <v>5</v>
-      </c>
-      <c r="M156" t="n">
-        <v>93.16</v>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q156" t="n">
-        <v>12</v>
-      </c>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>CHEMBL3413727</t>
-        </is>
-      </c>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) assessed as inhibition of peptide phosphorylation at 30 uM by based microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>CHEMBL1940997</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>613.48</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>11</v>
-      </c>
-      <c r="J157" t="n">
-        <v>10</v>
-      </c>
-      <c r="K157" t="n">
-        <v>3</v>
-      </c>
-      <c r="L157" t="n">
-        <v>2</v>
-      </c>
-      <c r="M157" t="n">
-        <v>165.53</v>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q157" t="n">
-        <v>0</v>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>CHEMBL1943931</t>
-        </is>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 1 uM</t>
-        </is>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>CHEMBL4290876</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>CNC(=O)Nc1sc2c(C(C)C)cc(NS(=O)(=O)N(C)C)cc2c1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>CNC(=O)Nc1sc2c(C(C)C)cc(NS(=O)(=O)N(C)C)cc2c1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>413.53</v>
-      </c>
-      <c r="H158" t="n">
-        <v>4</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4</v>
-      </c>
-      <c r="J158" t="n">
-        <v>6</v>
-      </c>
-      <c r="K158" t="n">
-        <v>2</v>
-      </c>
-      <c r="L158" t="n">
-        <v>2</v>
-      </c>
-      <c r="M158" t="n">
-        <v>133.63</v>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q158" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>CHEMBL4266871</t>
-        </is>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>Inhibition of c-MET (unknown origin) at 1 uM</t>
-        </is>
-      </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>CHEMBL2071394</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>CN(Cc1c(F)ccc(Cl)c1F)C(=O)c1cc(-c2cnn(C)c2)cnc1N</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>CN(Cc1c(F)ccc(Cl)c1F)C(=O)c1cc(-c2cnn(C)c2)cnc1N</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>391.81</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4</v>
-      </c>
-      <c r="K159" t="n">
-        <v>3</v>
-      </c>
-      <c r="L159" t="n">
-        <v>3</v>
-      </c>
-      <c r="M159" t="n">
-        <v>77.04000000000001</v>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q159" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="R159" t="inlineStr">
-        <is>
-          <t>CHEMBL2072591</t>
-        </is>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met at 1 uM incubated for 60 mins by spectrophotometry</t>
-        </is>
-      </c>
-      <c r="T159" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>CHEMBL1813803</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Cc1cc2[nH]nc(N)c2cn1</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Cc1cc2[nH]nc(N)c2cn1</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>148.17</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>2</v>
-      </c>
-      <c r="L160" t="n">
-        <v>2</v>
-      </c>
-      <c r="M160" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q160" t="n">
-        <v>3</v>
-      </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>CHEMBL1815730</t>
-        </is>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>CHEMBL4093614</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1NC(=O)[C@H]1CCCN1</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1NC(=O)[C@H]1CCCN1</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>368.41</v>
-      </c>
-      <c r="H161" t="n">
-        <v>4</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3</v>
-      </c>
-      <c r="K161" t="n">
-        <v>4</v>
-      </c>
-      <c r="L161" t="n">
-        <v>2</v>
-      </c>
-      <c r="M161" t="n">
-        <v>86.02</v>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q161" t="n">
-        <v>-8</v>
-      </c>
-      <c r="R161" t="inlineStr">
-        <is>
-          <t>CHEMBL4007915</t>
-        </is>
-      </c>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET at 0.1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>CHEMBL1171699</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>291.31</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3</v>
-      </c>
-      <c r="K162" t="n">
-        <v>4</v>
-      </c>
-      <c r="L162" t="n">
-        <v>4</v>
-      </c>
-      <c r="M162" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q162" t="n">
-        <v>4</v>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>CHEMBL1173995</t>
-        </is>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>CHEMBL3746959</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>0</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(Oc2ccc(F)cc2F)cc2cnc(Nc3ccc(N4CCC(O)CC4)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(Oc2ccc(F)cc2F)cc2cnc(Nc3ccc(N4CCC(O)CC4)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>479.49</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>5</v>
-      </c>
-      <c r="K163" t="n">
-        <v>5</v>
-      </c>
-      <c r="L163" t="n">
-        <v>4</v>
-      </c>
-      <c r="M163" t="n">
-        <v>92.51000000000001</v>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q163" t="n">
-        <v>11</v>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>CHEMBL3750644</t>
-        </is>
-      </c>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>Inhibition of cMET (unknown origin) at 10 uM</t>
-        </is>
-      </c>
-      <c r="T163" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>CHEMBL4247506</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>472.47</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5</v>
-      </c>
-      <c r="J164" t="n">
-        <v>2</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5</v>
-      </c>
-      <c r="L164" t="n">
-        <v>5</v>
-      </c>
-      <c r="M164" t="n">
-        <v>82.51000000000001</v>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q164" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R164" t="inlineStr">
-        <is>
-          <t>CHEMBL4230144</t>
-        </is>
-      </c>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 1 uM by mobility shift microfluidics platform based assay relative to control</t>
-        </is>
-      </c>
-      <c r="T164" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>CHEMBL2402081</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>432.46</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J165" t="n">
-        <v>4</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5</v>
-      </c>
-      <c r="L165" t="n">
-        <v>4</v>
-      </c>
-      <c r="M165" t="n">
-        <v>84.97</v>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q165" t="n">
-        <v>5</v>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>CHEMBL2404173</t>
-        </is>
-      </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>CHEMBL2348316</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>0</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>COc1cc(/C=C/C(=O)OCCc2ccc(O)cc2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>COc1cc(/C=C/C(=O)OCCc2ccc(O)cc2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>358.39</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>6</v>
-      </c>
-      <c r="J166" t="n">
-        <v>8</v>
-      </c>
-      <c r="K166" t="n">
-        <v>2</v>
-      </c>
-      <c r="L166" t="n">
-        <v>2</v>
-      </c>
-      <c r="M166" t="n">
-        <v>74.22</v>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q166" t="n">
-        <v>0</v>
-      </c>
-      <c r="R166" t="inlineStr">
-        <is>
-          <t>CHEMBL2350425</t>
-        </is>
-      </c>
-      <c r="S166" t="inlineStr">
-        <is>
-          <t>Inhibition of c-MET phosphorylation (unknown origin) at 25 uM after 1 hr by Z'-LYTE kinase assay</t>
-        </is>
-      </c>
-      <c r="T166" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>CHEMBL3236549</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>CC(C)c1cc(N2CC[C@@H](N)C2)nc(N)n1</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>CC(C)c1cc(N2CC[C@@H](N)C2)nc(N)n1</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>221.31</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5</v>
-      </c>
-      <c r="J167" t="n">
-        <v>2</v>
-      </c>
-      <c r="K167" t="n">
-        <v>2</v>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="n">
-        <v>81.06</v>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q167" t="n">
-        <v>-15</v>
-      </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>CHEMBL5058932</t>
-        </is>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>Met(h) Millipore kinase panel</t>
-        </is>
-      </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>CHEMBL1516890</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>275.31</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>2</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1</v>
-      </c>
-      <c r="K168" t="n">
-        <v>4</v>
-      </c>
-      <c r="L168" t="n">
-        <v>3</v>
-      </c>
-      <c r="M168" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q168" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S168" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>CHEMBL156524</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(N2CCc3ccccc32)=C1c1ccc(Cl)cc1</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(N2CCc3ccccc32)=C1c1ccc(Cl)cc1</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>324.77</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3</v>
-      </c>
-      <c r="J169" t="n">
-        <v>2</v>
-      </c>
-      <c r="K169" t="n">
-        <v>4</v>
-      </c>
-      <c r="L169" t="n">
-        <v>2</v>
-      </c>
-      <c r="M169" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q169" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>CHEMBL1909351</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>332.36</v>
-      </c>
-      <c r="H170" t="n">
-        <v>3</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4</v>
-      </c>
-      <c r="K170" t="n">
-        <v>3</v>
-      </c>
-      <c r="L170" t="n">
-        <v>3</v>
-      </c>
-      <c r="M170" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q170" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T170" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>CHEMBL1909353</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccco2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccco2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>343.39</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>5</v>
-      </c>
-      <c r="J171" t="n">
-        <v>4</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4</v>
-      </c>
-      <c r="L171" t="n">
-        <v>4</v>
-      </c>
-      <c r="M171" t="n">
-        <v>80.48999999999999</v>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q171" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="R171" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T171" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>CHEMBL1909367</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>0</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>COC(=O)Nc1nc2ccc(S(=O)(=O)c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>COC(=O)Nc1nc2ccc(S(=O)(=O)c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>551.48</v>
-      </c>
-      <c r="H172" t="n">
-        <v>4</v>
-      </c>
-      <c r="I172" t="n">
-        <v>6</v>
-      </c>
-      <c r="J172" t="n">
-        <v>5</v>
-      </c>
-      <c r="K172" t="n">
-        <v>4</v>
-      </c>
-      <c r="L172" t="n">
-        <v>4</v>
-      </c>
-      <c r="M172" t="n">
-        <v>142.28</v>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q172" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="R172" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S172" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>CHEMBL1909380</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>0</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>6</v>
-      </c>
-      <c r="J173" t="n">
-        <v>6</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5</v>
-      </c>
-      <c r="L173" t="n">
-        <v>5</v>
-      </c>
-      <c r="M173" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q173" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="R173" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>CHEMBL205158</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>0</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>427.51</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>7</v>
-      </c>
-      <c r="K174" t="n">
-        <v>5</v>
-      </c>
-      <c r="L174" t="n">
-        <v>4</v>
-      </c>
-      <c r="M174" t="n">
-        <v>76.16</v>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q174" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>CHEMBL2062290</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>448.39</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>4</v>
-      </c>
-      <c r="J175" t="n">
-        <v>5</v>
-      </c>
-      <c r="K175" t="n">
-        <v>4</v>
-      </c>
-      <c r="L175" t="n">
-        <v>3</v>
-      </c>
-      <c r="M175" t="n">
-        <v>73.91</v>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q175" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CHEMBL220465</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>0</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>484.52</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>9</v>
-      </c>
-      <c r="J176" t="n">
-        <v>7</v>
-      </c>
-      <c r="K176" t="n">
-        <v>5</v>
-      </c>
-      <c r="L176" t="n">
-        <v>5</v>
-      </c>
-      <c r="M176" t="n">
-        <v>137.22</v>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q176" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CHEMBL233002</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>0</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>350.42</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>2</v>
-      </c>
-      <c r="J177" t="n">
-        <v>2</v>
-      </c>
-      <c r="K177" t="n">
-        <v>4</v>
-      </c>
-      <c r="L177" t="n">
-        <v>3</v>
-      </c>
-      <c r="M177" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q177" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
